--- a/Code/Results/Cases/Case_3_142/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_142/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.610176384772672</v>
+        <v>1.263052213649928</v>
       </c>
       <c r="C2">
-        <v>1.230089782594519</v>
+        <v>0.3889961846971346</v>
       </c>
       <c r="D2">
-        <v>0.013889214828815</v>
+        <v>0.01665883252591627</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9176618180183738</v>
+        <v>0.829255421700779</v>
       </c>
       <c r="G2">
-        <v>0.0007731539159589056</v>
+        <v>0.002415931768689146</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2934330899952045</v>
+        <v>0.4885738491782838</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.124270885548526</v>
+        <v>1.12131573768238</v>
       </c>
       <c r="C3">
-        <v>1.062179148276925</v>
+        <v>0.3408341730425946</v>
       </c>
       <c r="D3">
-        <v>0.01459817828685317</v>
+        <v>0.01685731912639454</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.824661590560936</v>
+        <v>0.8198289288857126</v>
       </c>
       <c r="G3">
-        <v>0.0007810661410204722</v>
+        <v>0.002420730270256</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2870253161134286</v>
+        <v>0.4965952470778205</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.828492479047725</v>
+        <v>1.034401361116466</v>
       </c>
       <c r="C4">
-        <v>0.9602800969995542</v>
+        <v>0.3112853355500818</v>
       </c>
       <c r="D4">
-        <v>0.01510758220262076</v>
+        <v>0.01699604700388946</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7715506149893514</v>
+        <v>0.8150624508432287</v>
       </c>
       <c r="G4">
-        <v>0.0007860452519519644</v>
+        <v>0.002423828674492908</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2852716930100492</v>
+        <v>0.50216040146735</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.708487766727558</v>
+        <v>0.9990113780824572</v>
       </c>
       <c r="C5">
-        <v>0.919004768315574</v>
+        <v>0.2992492301924585</v>
       </c>
       <c r="D5">
-        <v>0.01533228355224736</v>
+        <v>0.01705680592191428</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7508152976462981</v>
+        <v>0.8133747162603555</v>
       </c>
       <c r="G5">
-        <v>0.0007881062600783859</v>
+        <v>0.002425129677623175</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2850610431035889</v>
+        <v>0.5045880485538454</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.688589653321912</v>
+        <v>0.9931366126592138</v>
       </c>
       <c r="C6">
-        <v>0.9121646562040837</v>
+        <v>0.2972509503332788</v>
       </c>
       <c r="D6">
-        <v>0.0153705874568999</v>
+        <v>0.01706714979904689</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7474243897593027</v>
+        <v>0.81310978470907</v>
       </c>
       <c r="G6">
-        <v>0.0007884504636620016</v>
+        <v>0.002425348030029978</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2850552727783509</v>
+        <v>0.505000776126959</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.826872067581121</v>
+        <v>1.033923964587586</v>
       </c>
       <c r="C7">
-        <v>0.9597224993401881</v>
+        <v>0.3111229916046057</v>
       </c>
       <c r="D7">
-        <v>0.015110545192492</v>
+        <v>0.01699684932525969</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.77126741647578</v>
+        <v>0.8150386613430101</v>
       </c>
       <c r="G7">
-        <v>0.000786072916033992</v>
+        <v>0.002423846064716095</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2852668676422638</v>
+        <v>0.5021924960359065</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.442027926685228</v>
+        <v>1.214158132896159</v>
       </c>
       <c r="C8">
-        <v>1.171912530808584</v>
+        <v>0.3723848916544057</v>
       </c>
       <c r="D8">
-        <v>0.0141173205727938</v>
+        <v>0.01672376434665424</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8847066400354748</v>
+        <v>0.8257918384315275</v>
       </c>
       <c r="G8">
-        <v>0.0007758579233133541</v>
+        <v>0.002417554801196153</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2907431724004113</v>
+        <v>0.4912061202129401</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.674736550598141</v>
+        <v>1.568506119212714</v>
       </c>
       <c r="C9">
-        <v>1.600158525609686</v>
+        <v>0.4927275319830073</v>
       </c>
       <c r="D9">
-        <v>0.01283554050347036</v>
+        <v>0.01632261865386297</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.143617278285561</v>
+        <v>0.8550850067940416</v>
       </c>
       <c r="G9">
-        <v>0.0007567083150781392</v>
+        <v>0.002406418571106037</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3209979087717798</v>
+        <v>0.4747905633639178</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.605965310177737</v>
+        <v>1.829454040565565</v>
       </c>
       <c r="C10">
-        <v>1.926347671559483</v>
+        <v>0.5813171251411404</v>
       </c>
       <c r="D10">
-        <v>0.01242570523675468</v>
+        <v>0.01611077276218964</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.36354608031769</v>
+        <v>0.8817535431648906</v>
       </c>
       <c r="G10">
-        <v>0.0007430551404979513</v>
+        <v>0.002398960507247283</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3585768859575467</v>
+        <v>0.465926633928909</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.037610951134866</v>
+        <v>1.948312367271456</v>
       </c>
       <c r="C11">
-        <v>2.078331849625499</v>
+        <v>0.6216674813978216</v>
       </c>
       <c r="D11">
-        <v>0.01238877700167862</v>
+        <v>0.01603262505904723</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.471985942584752</v>
+        <v>0.895034684887662</v>
       </c>
       <c r="G11">
-        <v>0.0007369030224828539</v>
+        <v>0.002395722996831776</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3799005006571434</v>
+        <v>0.4626034244054509</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.202454272321972</v>
+        <v>1.993343382952332</v>
       </c>
       <c r="C12">
-        <v>2.136506823635955</v>
+        <v>0.6369550885585795</v>
       </c>
       <c r="D12">
-        <v>0.01239971350138802</v>
+        <v>0.01600567320014079</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.51444430009289</v>
+        <v>0.9002316937212242</v>
       </c>
       <c r="G12">
-        <v>0.0007345788270637366</v>
+        <v>0.002394519216657385</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3886703105626879</v>
+        <v>0.4614482146225427</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.166886479720063</v>
+        <v>1.983644169495733</v>
       </c>
       <c r="C13">
-        <v>2.123948324017249</v>
+        <v>0.6336622730001409</v>
       </c>
       <c r="D13">
-        <v>0.01239618925393771</v>
+        <v>0.01601135996535419</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.505234842776929</v>
+        <v>0.8991049262225914</v>
       </c>
       <c r="G13">
-        <v>0.0007350791921971214</v>
+        <v>0.002394777487090843</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3867491494286881</v>
+        <v>0.4616923989810928</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.051143425046234</v>
+        <v>1.952016655325622</v>
       </c>
       <c r="C14">
-        <v>2.083104826354656</v>
+        <v>0.6229250424992188</v>
       </c>
       <c r="D14">
-        <v>0.01238915571025245</v>
+        <v>0.01603035466148128</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.475449901104469</v>
+        <v>0.8954588704177411</v>
       </c>
       <c r="G14">
-        <v>0.0007367117182151196</v>
+        <v>0.002395623516987684</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3806075279061503</v>
+        <v>0.4625063087371117</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.980435789896887</v>
+        <v>1.932646752183985</v>
       </c>
       <c r="C15">
-        <v>2.058171336937448</v>
+        <v>0.6163492112984841</v>
       </c>
       <c r="D15">
-        <v>0.0123882039065073</v>
+        <v>0.01604233402938959</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.457393384057895</v>
+        <v>0.8932474716142735</v>
       </c>
       <c r="G15">
-        <v>0.0007377123058032395</v>
+        <v>0.002396144621510581</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3769389046268472</v>
+        <v>0.4630183313940606</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.577937069845461</v>
+        <v>1.821689432965286</v>
       </c>
       <c r="C16">
-        <v>1.916496161781311</v>
+        <v>0.5786811965588754</v>
       </c>
       <c r="D16">
-        <v>0.01243140715542168</v>
+        <v>0.01611624831342695</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.356643634259186</v>
+        <v>0.8809089277437891</v>
       </c>
       <c r="G16">
-        <v>0.0007434581333774462</v>
+        <v>0.002399175198619344</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3572755950633422</v>
+        <v>0.4661581886052915</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.333229712659602</v>
+        <v>1.753659659957918</v>
       </c>
       <c r="C17">
-        <v>1.830574631485092</v>
+        <v>0.5555864042799499</v>
       </c>
       <c r="D17">
-        <v>0.01249846999036919</v>
+        <v>0.01616627377427804</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.297112290716569</v>
+        <v>0.8736357704374029</v>
       </c>
       <c r="G17">
-        <v>0.0007469960715900227</v>
+        <v>0.00240107402247848</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3463541047995378</v>
+        <v>0.4682668845653382</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.193220096606751</v>
+        <v>1.714545012456028</v>
       </c>
       <c r="C18">
-        <v>1.78148656798237</v>
+        <v>0.542307611066235</v>
       </c>
       <c r="D18">
-        <v>0.01255088058385567</v>
+        <v>0.016196760934438</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.263648818232426</v>
+        <v>0.8695604920745268</v>
       </c>
       <c r="G18">
-        <v>0.0007490367323193151</v>
+        <v>0.002402180791185455</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3404645337836385</v>
+        <v>0.4695464130008702</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.145935628253824</v>
+        <v>1.701303914562004</v>
       </c>
       <c r="C19">
-        <v>1.764920219957958</v>
+        <v>0.5378124344204025</v>
       </c>
       <c r="D19">
-        <v>0.01257090705319186</v>
+        <v>0.01620737710518227</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.252446867078717</v>
+        <v>0.868199156465792</v>
       </c>
       <c r="G19">
-        <v>0.0007497287337370866</v>
+        <v>0.002402558038039361</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3385353233973092</v>
+        <v>0.4699910503772742</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.359201085469635</v>
+        <v>1.760900066965689</v>
       </c>
       <c r="C20">
-        <v>1.839686082547132</v>
+        <v>0.5580443919355389</v>
       </c>
       <c r="D20">
-        <v>0.01248987582413008</v>
+        <v>0.01616077095730972</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.303367769311876</v>
+        <v>0.8743988101665394</v>
       </c>
       <c r="G20">
-        <v>0.0007466188790683198</v>
+        <v>0.002400870377656718</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.347475534462717</v>
+        <v>0.4680355018868312</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.085100253781718</v>
+        <v>1.961305826071907</v>
       </c>
       <c r="C21">
-        <v>2.095083769485882</v>
+        <v>0.6260786112092092</v>
       </c>
       <c r="D21">
-        <v>0.01239051523826973</v>
+        <v>0.01602470361329011</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.484158988429357</v>
+        <v>0.8965252338263099</v>
       </c>
       <c r="G21">
-        <v>0.0007362320827380375</v>
+        <v>0.002395374416149409</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3823918554464711</v>
+        <v>0.4622644323559584</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.567743570091125</v>
+        <v>2.092410590016698</v>
       </c>
       <c r="C22">
-        <v>2.265685211696166</v>
+        <v>0.6705886513340715</v>
       </c>
       <c r="D22">
-        <v>0.01247284655854486</v>
+        <v>0.01595117981356609</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.610551674524046</v>
+        <v>0.9119649201739435</v>
       </c>
       <c r="G22">
-        <v>0.0007294739575150095</v>
+        <v>0.002391911798716692</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4093122792135233</v>
+        <v>0.4590949239670721</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.309308884194934</v>
+        <v>2.022425744332566</v>
       </c>
       <c r="C23">
-        <v>2.174256435115751</v>
+        <v>0.6468284365092245</v>
       </c>
       <c r="D23">
-        <v>0.01241414707111588</v>
+        <v>0.01598900424089678</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.542270974868046</v>
+        <v>0.9036341024482937</v>
       </c>
       <c r="G23">
-        <v>0.000733079219908237</v>
+        <v>0.002393748071308913</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.394537149136049</v>
+        <v>0.4607310296751024</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.347457339834307</v>
+        <v>1.757626689632389</v>
       </c>
       <c r="C24">
-        <v>1.835565839593983</v>
+        <v>0.5569331397728661</v>
       </c>
       <c r="D24">
-        <v>0.01249371834200375</v>
+        <v>0.01616325340349789</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.300537308163413</v>
+        <v>0.8740535094347024</v>
       </c>
       <c r="G24">
-        <v>0.0007467893868642215</v>
+        <v>0.002400962398369356</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.346967329821922</v>
+        <v>0.4681399007436511</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.337520233189196</v>
+        <v>1.472542850331422</v>
       </c>
       <c r="C25">
-        <v>1.482607940233038</v>
+        <v>0.4601445790254957</v>
       </c>
       <c r="D25">
-        <v>0.01309910519334423</v>
+        <v>0.01641665885678734</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.068952163555394</v>
+        <v>0.8462670363020806</v>
       </c>
       <c r="G25">
-        <v>0.0007618061129304724</v>
+        <v>0.00240930351866838</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3103916510076417</v>
+        <v>0.4786751266139788</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_142/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_142/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.263052213649928</v>
+        <v>3.610176384772899</v>
       </c>
       <c r="C2">
-        <v>0.3889961846971346</v>
+        <v>1.230089782594575</v>
       </c>
       <c r="D2">
-        <v>0.01665883252591627</v>
+        <v>0.0138892148286871</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.829255421700779</v>
+        <v>0.9176618180183596</v>
       </c>
       <c r="G2">
-        <v>0.002415931768689146</v>
+        <v>0.0007731539160205839</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4885738491782838</v>
+        <v>0.2934330899952045</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.12131573768238</v>
+        <v>3.124270885548697</v>
       </c>
       <c r="C3">
-        <v>0.3408341730425946</v>
+        <v>1.062179148276982</v>
       </c>
       <c r="D3">
-        <v>0.01685731912639454</v>
+        <v>0.01459817828684962</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8198289288857126</v>
+        <v>0.8246615905609218</v>
       </c>
       <c r="G3">
-        <v>0.002420730270256</v>
+        <v>0.0007810661409912921</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4965952470778205</v>
+        <v>0.2870253161134038</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.034401361116466</v>
+        <v>2.828492479047895</v>
       </c>
       <c r="C4">
-        <v>0.3112853355500818</v>
+        <v>0.9602800969993268</v>
       </c>
       <c r="D4">
-        <v>0.01699604700388946</v>
+        <v>0.01510758220296538</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8150624508432287</v>
+        <v>0.7715506149893372</v>
       </c>
       <c r="G4">
-        <v>0.002423828674492908</v>
+        <v>0.000786045251982229</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.50216040146735</v>
+        <v>0.2852716930100421</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9990113780824572</v>
+        <v>2.708487766727615</v>
       </c>
       <c r="C5">
-        <v>0.2992492301924585</v>
+        <v>0.9190047683155456</v>
       </c>
       <c r="D5">
-        <v>0.01705680592191428</v>
+        <v>0.01533228355200578</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8133747162603555</v>
+        <v>0.7508152976462839</v>
       </c>
       <c r="G5">
-        <v>0.002425129677623175</v>
+        <v>0.0007881062600471331</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5045880485538454</v>
+        <v>0.2850610431035854</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9931366126592138</v>
+        <v>2.688589653321856</v>
       </c>
       <c r="C6">
-        <v>0.2972509503332788</v>
+        <v>0.9121646562038563</v>
       </c>
       <c r="D6">
-        <v>0.01706714979904689</v>
+        <v>0.01537058745699227</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.81310978470907</v>
+        <v>0.7474243897593027</v>
       </c>
       <c r="G6">
-        <v>0.002425348030029978</v>
+        <v>0.0007884504637158523</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.505000776126959</v>
+        <v>0.2850552727783509</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.033923964587586</v>
+        <v>2.826872067581007</v>
       </c>
       <c r="C7">
-        <v>0.3111229916046057</v>
+        <v>0.959722499339847</v>
       </c>
       <c r="D7">
-        <v>0.01699684932525969</v>
+        <v>0.01511054519248134</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8150386613430101</v>
+        <v>0.77126741647578</v>
       </c>
       <c r="G7">
-        <v>0.002423846064716095</v>
+        <v>0.000786072915944286</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5021924960359065</v>
+        <v>0.2852668676422567</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.214158132896159</v>
+        <v>3.442027926685228</v>
       </c>
       <c r="C8">
-        <v>0.3723848916544057</v>
+        <v>1.17191253080864</v>
       </c>
       <c r="D8">
-        <v>0.01672376434665424</v>
+        <v>0.014117320573245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8257918384315275</v>
+        <v>0.8847066400355175</v>
       </c>
       <c r="G8">
-        <v>0.002417554801196153</v>
+        <v>0.0007758579233379256</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4912061202129401</v>
+        <v>0.2907431724004397</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.568506119212714</v>
+        <v>4.674736550598084</v>
       </c>
       <c r="C9">
-        <v>0.4927275319830073</v>
+        <v>1.600158525609856</v>
       </c>
       <c r="D9">
-        <v>0.01632261865386297</v>
+        <v>0.0128355405035272</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8550850067940416</v>
+        <v>1.143617278285603</v>
       </c>
       <c r="G9">
-        <v>0.002406418571106037</v>
+        <v>0.0007567083150752526</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4747905633639178</v>
+        <v>0.3209979087717869</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.829454040565565</v>
+        <v>5.60596531017768</v>
       </c>
       <c r="C10">
-        <v>0.5813171251411404</v>
+        <v>1.92634767155937</v>
       </c>
       <c r="D10">
-        <v>0.01611077276218964</v>
+        <v>0.01242570523704245</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8817535431648906</v>
+        <v>1.363546080317718</v>
       </c>
       <c r="G10">
-        <v>0.002398960507247283</v>
+        <v>0.000743055140483827</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.465926633928909</v>
+        <v>0.3585768859575538</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.948312367271456</v>
+        <v>6.037610951134809</v>
       </c>
       <c r="C11">
-        <v>0.6216674813978216</v>
+        <v>2.078331849625215</v>
       </c>
       <c r="D11">
-        <v>0.01603262505904723</v>
+        <v>0.01238877700160046</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.895034684887662</v>
+        <v>1.471985942584752</v>
       </c>
       <c r="G11">
-        <v>0.002395722996831776</v>
+        <v>0.0007369030225237526</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4626034244054509</v>
+        <v>0.3799005006571363</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.993343382952332</v>
+        <v>6.202454272321916</v>
       </c>
       <c r="C12">
-        <v>0.6369550885585795</v>
+        <v>2.136506823635784</v>
       </c>
       <c r="D12">
-        <v>0.01600567320014079</v>
+        <v>0.01239971350151947</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9002316937212242</v>
+        <v>1.514444300092862</v>
       </c>
       <c r="G12">
-        <v>0.002394519216657385</v>
+        <v>0.0007345788270613268</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4614482146225427</v>
+        <v>0.3886703105626879</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.983644169495733</v>
+        <v>6.166886479720063</v>
       </c>
       <c r="C13">
-        <v>0.6336622730001409</v>
+        <v>2.123948324017078</v>
       </c>
       <c r="D13">
-        <v>0.01601135996535419</v>
+        <v>0.01239618925384889</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8991049262225914</v>
+        <v>1.505234842776929</v>
       </c>
       <c r="G13">
-        <v>0.002394777487090843</v>
+        <v>0.0007350791922240376</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4616923989810928</v>
+        <v>0.3867491494287023</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.952016655325622</v>
+        <v>6.051143425046064</v>
       </c>
       <c r="C14">
-        <v>0.6229250424992188</v>
+        <v>2.083104826354145</v>
       </c>
       <c r="D14">
-        <v>0.01603035466148128</v>
+        <v>0.01238915571025245</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8954588704177411</v>
+        <v>1.475449901104469</v>
       </c>
       <c r="G14">
-        <v>0.002395623516987684</v>
+        <v>0.0007367117182153446</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4625063087371117</v>
+        <v>0.3806075279061503</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.932646752183985</v>
+        <v>5.980435789896831</v>
       </c>
       <c r="C15">
-        <v>0.6163492112984841</v>
+        <v>2.058171336937448</v>
       </c>
       <c r="D15">
-        <v>0.01604233402938959</v>
+        <v>0.01238820390663165</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8932474716142735</v>
+        <v>1.457393384057852</v>
       </c>
       <c r="G15">
-        <v>0.002396144621510581</v>
+        <v>0.0007377123058742968</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4630183313940606</v>
+        <v>0.3769389046268472</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.821689432965286</v>
+        <v>5.577937069845518</v>
       </c>
       <c r="C16">
-        <v>0.5786811965588754</v>
+        <v>1.916496161781424</v>
       </c>
       <c r="D16">
-        <v>0.01611624831342695</v>
+        <v>0.01243140715552471</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8809089277437891</v>
+        <v>1.3566436342592</v>
       </c>
       <c r="G16">
-        <v>0.002399175198619344</v>
+        <v>0.0007434581332972954</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4661581886052915</v>
+        <v>0.3572755950633351</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.753659659957918</v>
+        <v>5.333229712659545</v>
       </c>
       <c r="C17">
-        <v>0.5555864042799499</v>
+        <v>1.830574631484978</v>
       </c>
       <c r="D17">
-        <v>0.01616627377427804</v>
+        <v>0.012498469990053</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8736357704374029</v>
+        <v>1.297112290716612</v>
       </c>
       <c r="G17">
-        <v>0.00240107402247848</v>
+        <v>0.000746996071682269</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4682668845653382</v>
+        <v>0.3463541047995449</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.714545012456028</v>
+        <v>5.193220096606581</v>
       </c>
       <c r="C18">
-        <v>0.542307611066235</v>
+        <v>1.78148656798237</v>
       </c>
       <c r="D18">
-        <v>0.016196760934438</v>
+        <v>0.01255088058382015</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8695604920745268</v>
+        <v>1.263648818232411</v>
       </c>
       <c r="G18">
-        <v>0.002402180791185455</v>
+        <v>0.000749036732225064</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4695464130008702</v>
+        <v>0.3404645337836314</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.701303914562004</v>
+        <v>5.145935628254165</v>
       </c>
       <c r="C19">
-        <v>0.5378124344204025</v>
+        <v>1.764920219958412</v>
       </c>
       <c r="D19">
-        <v>0.01620737710518227</v>
+        <v>0.0125709070531741</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.868199156465792</v>
+        <v>1.252446867078746</v>
       </c>
       <c r="G19">
-        <v>0.002402558038039361</v>
+        <v>0.0007497287338278216</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4699910503772742</v>
+        <v>0.3385353233973163</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.760900066965689</v>
+        <v>5.359201085469408</v>
       </c>
       <c r="C20">
-        <v>0.5580443919355389</v>
+        <v>1.839686082547075</v>
       </c>
       <c r="D20">
-        <v>0.01616077095730972</v>
+        <v>0.01248987582418692</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8743988101665394</v>
+        <v>1.303367769311876</v>
       </c>
       <c r="G20">
-        <v>0.002400870377656718</v>
+        <v>0.0007466188790648401</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4680355018868312</v>
+        <v>0.3474755344627312</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.961305826071907</v>
+        <v>6.085100253781604</v>
       </c>
       <c r="C21">
-        <v>0.6260786112092092</v>
+        <v>2.095083769486052</v>
       </c>
       <c r="D21">
-        <v>0.01602470361329011</v>
+        <v>0.01239051523817025</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8965252338263099</v>
+        <v>1.4841589884294</v>
       </c>
       <c r="G21">
-        <v>0.002395374416149409</v>
+        <v>0.0007362320827353219</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4622644323559584</v>
+        <v>0.3823918554464996</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.092410590016698</v>
+        <v>6.567743570091068</v>
       </c>
       <c r="C22">
-        <v>0.6705886513340715</v>
+        <v>2.26568521169628</v>
       </c>
       <c r="D22">
-        <v>0.01595117981356609</v>
+        <v>0.0124728465583317</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9119649201739435</v>
+        <v>1.610551674524046</v>
       </c>
       <c r="G22">
-        <v>0.002391911798716692</v>
+        <v>0.00072947395746949</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4590949239670721</v>
+        <v>0.4093122792135375</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.022425744332566</v>
+        <v>6.309308884194991</v>
       </c>
       <c r="C23">
-        <v>0.6468284365092245</v>
+        <v>2.17425643511541</v>
       </c>
       <c r="D23">
-        <v>0.01598900424089678</v>
+        <v>0.01241414707099509</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9036341024482937</v>
+        <v>1.542270974868075</v>
       </c>
       <c r="G23">
-        <v>0.002393748071308913</v>
+        <v>0.0007330792199302194</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4607310296751024</v>
+        <v>0.3945371491360703</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.757626689632389</v>
+        <v>5.347457339834307</v>
       </c>
       <c r="C24">
-        <v>0.5569331397728661</v>
+        <v>1.83556583959421</v>
       </c>
       <c r="D24">
-        <v>0.01616325340349789</v>
+        <v>0.01249371834169821</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8740535094347024</v>
+        <v>1.300537308163413</v>
       </c>
       <c r="G24">
-        <v>0.002400962398369356</v>
+        <v>0.0007467893868631297</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4681399007436511</v>
+        <v>0.346967329821922</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.472542850331422</v>
+        <v>4.337520233189309</v>
       </c>
       <c r="C25">
-        <v>0.4601445790254957</v>
+        <v>1.482607940233208</v>
       </c>
       <c r="D25">
-        <v>0.01641665885678734</v>
+        <v>0.01309910519345436</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8462670363020806</v>
+        <v>1.068952163555394</v>
       </c>
       <c r="G25">
-        <v>0.00240930351866838</v>
+        <v>0.0007618061129013846</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4786751266139788</v>
+        <v>0.3103916510076559</v>
       </c>
       <c r="J25">
         <v>0</v>
